--- a/medicine/Psychotrope/Fermentation_de_la_bière/Fermentation_de_la_bière.xlsx
+++ b/medicine/Psychotrope/Fermentation_de_la_bière/Fermentation_de_la_bière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fermentation_de_la_bi%C3%A8re</t>
+          <t>Fermentation_de_la_bière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La fermentation est une des étapes de la fabrication de la bière. Cette étape consiste à ensemencer le moût avec une certaine quantité de levures (on parle alors de « levain ») afin que ces levures transforment les sucres présents en alcool et en CO2. Il existe quatre types de fermentation : basse, haute, spontanée et mixte.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fermentation_de_la_bi%C3%A8re</t>
+          <t>Fermentation_de_la_bière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Réaction chimique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La fermentation est une réaction biochimique consistant à libérer de l'énergie à partir de sucre (du glucose C6H12O6 la plupart du temps). La fermentation ne nécessite pas de dioxygène (Pasteur : « La fermentation, c'est la vie sans l'air. »[1]), elle peut donc avoir lieu en milieu anaérobie. Son faible rendement énergétique la distingue de la respiration cellulaire qui, elle, nécessite, de l'oxygène (milieu aérobie).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fermentation est une réaction biochimique consistant à libérer de l'énergie à partir de sucre (du glucose C6H12O6 la plupart du temps). La fermentation ne nécessite pas de dioxygène (Pasteur : « La fermentation, c'est la vie sans l'air. »), elle peut donc avoir lieu en milieu anaérobie. Son faible rendement énergétique la distingue de la respiration cellulaire qui, elle, nécessite, de l'oxygène (milieu aérobie).
 Pour fermenter le moût, il est nécessaire de l'ensemencer avec des levures qui vont se charger de transformer le glucose (entre autres) en alcool (C2H5OH) et en dioxyde de carbone.
 Dans le cas de la fabrication de la bière, la fermentation est dite éthylique (ou alcoolique) car la réaction dégage de l'éthanol :
 C6H12O6 + 2 ADP + 2 Pi→ 2 C2H5OH + 2 CO2 + 25,4 calories sous forme de 2 ATP.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fermentation_de_la_bi%C3%A8re</t>
+          <t>Fermentation_de_la_bière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,13 +560,15 @@
           <t>Fermentation basse</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La fermentation basse nécessite l'adjonction dans le moût de levures dont l'activité est optimale à des températures basses (9-22 °C, idéalement 10-15 °C).
 Les bières obtenues par fermentation basse ont un goût de houblon et de malt. Elles sont en moyenne moins fruitées et moins alcoolisées que les bières de fermentation haute, mais plus chargées en dioxyde de carbone. Elles se consomment fraîches, généralement entre 4 et 7 degrés Celsius.
 La levure la plus fréquemment employée est Saccharomyces pastorianus (anciennement Saccharomyces carlsbergensis).
 La fraîcheur requise par le procédé a l'avantage de protéger la bière contre les bactéries et les champignons. Les bières obtenues par fermentation basse ont une durée de conservation supérieure à celles obtenues par fermentation haute. En revanche, les levures basses produisent moins d'alcool que les hautes, car leur « travail » est freiné par l'alcool qu'elles produisent.
-La technique de fermentation basse semble être mentionnée pour la première fois dans les minutes du conseil de la ville de Munich, en 1420[2]. Cantonné à la Bavière depuis le XVe siècle, ce mode de fermentation s'est répandu au XIXe siècle avec la pils, l'invention du réfrigérateur permettant d'y recourir tout au long de l'année.
+La technique de fermentation basse semble être mentionnée pour la première fois dans les minutes du conseil de la ville de Munich, en 1420. Cantonné à la Bavière depuis le XVe siècle, ce mode de fermentation s'est répandu au XIXe siècle avec la pils, l'invention du réfrigérateur permettant d'y recourir tout au long de l'année.
 La fermentation basse est suivie d'une phase de stockage qui durait quelques mois, aujourd'hui quelques semaines. Cela vaut aux bières de fermentation basse le nom usuel de Lager (de l'allemand lagern, signifiant « stocker »).
 </t>
         </is>
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fermentation_de_la_bi%C3%A8re</t>
+          <t>Fermentation_de_la_bière</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Fermentation haute</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La fermentation haute nécessite l'adjonction dans le moût de levures dont l'activité est optimale à des températures hautes (15-24 °C, idéalement 18-21 °C).
 La levure « haute » couramment utilisée est Saccharomyces cerevisiae. La fermentation a lieu durant 3 à 8 jours à une température de 15 à 25 degrés Celsius.
@@ -599,7 +617,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fermentation_de_la_bi%C3%A8re</t>
+          <t>Fermentation_de_la_bière</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -617,7 +635,9 @@
           <t>Fermentation spontanée</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Contrairement aux fermentations haute et basse, la fermentation spontanée ne nécessite pas d'ajout de levure dans le moût ; exposé à l'air libre, il est ensemencé par des levures sauvages.
 C'était le mode de production de la bière avant la culture de la levure, maîtrisée au cours du Moyen Âge. Aujourd'hui il n'est guère plus utilisé que pour les bières belges de type lambic et donne un goût acide dû aux acides lactique et acétique. Cette technique est endémique de la vallée de la Senne et du Pajottenland, où l'on trouve à l'état naturel les levures Dekkera bruxellensis (ou lambicus). Les bières produites grâce à cette technique portent l'appellation de lambic.
@@ -633,7 +653,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Fermentation_de_la_bi%C3%A8re</t>
+          <t>Fermentation_de_la_bière</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -651,7 +671,9 @@
           <t>Fermentation mixte</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La fermentation mixte combine une fermentation par des levures classiques de brasseries (Saccharomyces pastorianus et Saccharomyces cerevisiae) et une fermentation par des organismes divers, souvent qualifiés de "sauvages" (Brettanomyces, Lactobacillus, Pediococcus…).
 Les différents microorganismes peuvent être ensemencés simultanément ou de manière différée selon les résultats escomptés. Il en résulte une grande variété de dynamiques de fermentation, mais on peut souvent mettre en évidence deux phases :
@@ -668,7 +690,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Fermentation_de_la_bi%C3%A8re</t>
+          <t>Fermentation_de_la_bière</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -687,6 +709,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -694,7 +718,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Fermentation_de_la_bi%C3%A8re</t>
+          <t>Fermentation_de_la_bière</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -713,6 +737,8 @@
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
